--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,10 +91,7 @@
     <t>Gfra2</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2830243333333333</v>
+        <v>0.4995885</v>
       </c>
       <c r="H2">
-        <v>0.849073</v>
+        <v>0.999177</v>
       </c>
       <c r="I2">
-        <v>0.1026046469866766</v>
+        <v>0.08073427759634712</v>
       </c>
       <c r="J2">
-        <v>0.1463964903726289</v>
+        <v>0.07892927665008602</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.292704</v>
+        <v>0.8174055</v>
       </c>
       <c r="N2">
-        <v>0.585408</v>
+        <v>1.634811</v>
       </c>
       <c r="O2">
-        <v>0.03956727483679398</v>
+        <v>0.09761389918309914</v>
       </c>
       <c r="P2">
-        <v>0.03362885612842486</v>
+        <v>0.08793380245030721</v>
       </c>
       <c r="Q2">
-        <v>0.082842354464</v>
+        <v>0.40836638763675</v>
       </c>
       <c r="R2">
-        <v>0.497054126784</v>
+        <v>1.633465550547</v>
       </c>
       <c r="S2">
-        <v>0.004059786266854059</v>
+        <v>0.007880787633910168</v>
       </c>
       <c r="T2">
-        <v>0.004923146512447474</v>
+        <v>0.00694055142049431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2830243333333333</v>
+        <v>0.4995885</v>
       </c>
       <c r="H3">
-        <v>0.849073</v>
+        <v>0.999177</v>
       </c>
       <c r="I3">
-        <v>0.1026046469866766</v>
+        <v>0.08073427759634712</v>
       </c>
       <c r="J3">
-        <v>0.1463964903726289</v>
+        <v>0.07892927665008602</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.404776</v>
       </c>
       <c r="O3">
-        <v>0.243536425220596</v>
+        <v>0.2151446495736546</v>
       </c>
       <c r="P3">
-        <v>0.3104782211899454</v>
+        <v>0.2907140367125996</v>
       </c>
       <c r="Q3">
-        <v>0.5098943747386667</v>
+        <v>0.900054644892</v>
       </c>
       <c r="R3">
-        <v>4.589049372648</v>
+        <v>5.400327869352</v>
       </c>
       <c r="S3">
-        <v>0.02498796893815642</v>
+        <v>0.01736954786204825</v>
       </c>
       <c r="T3">
-        <v>0.04545292191934481</v>
+        <v>0.02294584862975204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2830243333333333</v>
+        <v>0.4995885</v>
       </c>
       <c r="H4">
-        <v>0.849073</v>
+        <v>0.999177</v>
       </c>
       <c r="I4">
-        <v>0.1026046469866766</v>
+        <v>0.08073427759634712</v>
       </c>
       <c r="J4">
-        <v>0.1463964903726289</v>
+        <v>0.07892927665008602</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.492274500000001</v>
+        <v>0.008574</v>
       </c>
       <c r="N4">
-        <v>8.984549000000001</v>
+        <v>0.025722</v>
       </c>
       <c r="O4">
-        <v>0.6072587316327118</v>
+        <v>0.001023900098049123</v>
       </c>
       <c r="P4">
-        <v>0.5161188533463558</v>
+        <v>0.001383544193565374</v>
       </c>
       <c r="Q4">
-        <v>1.271422995512834</v>
+        <v>0.004283471799</v>
       </c>
       <c r="R4">
-        <v>7.628537973077001</v>
+        <v>0.025700830794</v>
       </c>
       <c r="S4">
-        <v>0.06230756778875139</v>
+        <v>8.266383474682489E-05</v>
       </c>
       <c r="T4">
-        <v>0.07555798874505207</v>
+        <v>0.0001092021424115415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2830243333333333</v>
+        <v>0.4995885</v>
       </c>
       <c r="H5">
-        <v>0.849073</v>
+        <v>0.999177</v>
       </c>
       <c r="I5">
-        <v>0.1026046469866766</v>
+        <v>0.08073427759634712</v>
       </c>
       <c r="J5">
-        <v>0.1463964903726289</v>
+        <v>0.07892927665008602</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7144463333333334</v>
+        <v>5.712803</v>
       </c>
       <c r="N5">
-        <v>2.143339</v>
+        <v>11.425606</v>
       </c>
       <c r="O5">
-        <v>0.09657775236122405</v>
+        <v>0.6822182822294519</v>
       </c>
       <c r="P5">
-        <v>0.1231244514346268</v>
+        <v>0.6145646077002448</v>
       </c>
       <c r="Q5">
-        <v>0.2022056971941111</v>
+        <v>2.8540506815655</v>
       </c>
       <c r="R5">
-        <v>1.819851274747</v>
+        <v>11.416202726262</v>
       </c>
       <c r="S5">
-        <v>0.00990932618779007</v>
+        <v>0.05507840017881566</v>
       </c>
       <c r="T5">
-        <v>0.01802498756908456</v>
+        <v>0.0485071399405242</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -785,49 +785,49 @@
         <v>2</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.4995885</v>
+      </c>
+      <c r="H6">
+        <v>0.999177</v>
+      </c>
+      <c r="I6">
+        <v>0.08073427759634712</v>
+      </c>
+      <c r="J6">
+        <v>0.07892927665008602</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.2830243333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.849073</v>
-      </c>
-      <c r="I6">
-        <v>0.1026046469866766</v>
-      </c>
-      <c r="J6">
-        <v>0.1463964903726289</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M6">
-        <v>0.09661166666666667</v>
+        <v>0.03348933333333334</v>
       </c>
       <c r="N6">
-        <v>0.289835</v>
+        <v>0.100468</v>
       </c>
       <c r="O6">
-        <v>0.01305981594867418</v>
+        <v>0.003999268915745247</v>
       </c>
       <c r="P6">
-        <v>0.0166496179006471</v>
+        <v>0.005404008943283026</v>
       </c>
       <c r="Q6">
-        <v>0.02734345255055555</v>
+        <v>0.016730885806</v>
       </c>
       <c r="R6">
-        <v>0.246091072955</v>
+        <v>0.100385314836</v>
       </c>
       <c r="S6">
-        <v>0.001339997805124684</v>
+        <v>0.0003228780868262189</v>
       </c>
       <c r="T6">
-        <v>0.002437445626700034</v>
+        <v>0.0004265345169039249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.4753725</v>
+        <v>0.2830243333333333</v>
       </c>
       <c r="H7">
-        <v>4.950745</v>
+        <v>0.849073</v>
       </c>
       <c r="I7">
-        <v>0.8973953530133233</v>
+        <v>0.0457371718801662</v>
       </c>
       <c r="J7">
-        <v>0.8536035096273711</v>
+        <v>0.06707191790155147</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.292704</v>
+        <v>0.8174055</v>
       </c>
       <c r="N7">
-        <v>0.585408</v>
+        <v>1.634811</v>
       </c>
       <c r="O7">
-        <v>0.03956727483679398</v>
+        <v>0.09761389918309914</v>
       </c>
       <c r="P7">
-        <v>0.03362885612842486</v>
+        <v>0.08793380245030721</v>
       </c>
       <c r="Q7">
-        <v>0.72455143224</v>
+        <v>0.2313456467005</v>
       </c>
       <c r="R7">
-        <v>2.89820572896</v>
+        <v>1.388073880203</v>
       </c>
       <c r="S7">
-        <v>0.03550748856993992</v>
+        <v>0.00446458368483062</v>
       </c>
       <c r="T7">
-        <v>0.02870570961597739</v>
+        <v>0.005897888778718251</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.4753725</v>
+        <v>0.2830243333333333</v>
       </c>
       <c r="H8">
-        <v>4.950745</v>
+        <v>0.849073</v>
       </c>
       <c r="I8">
-        <v>0.8973953530133233</v>
+        <v>0.0457371718801662</v>
       </c>
       <c r="J8">
-        <v>0.8536035096273711</v>
+        <v>0.06707191790155147</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>5.404776</v>
       </c>
       <c r="O8">
-        <v>0.243536425220596</v>
+        <v>0.2151446495736546</v>
       </c>
       <c r="P8">
-        <v>0.3104782211899454</v>
+        <v>0.2907140367125996</v>
       </c>
       <c r="Q8">
-        <v>4.45961129302</v>
+        <v>0.5098943747386667</v>
       </c>
       <c r="R8">
-        <v>26.75766775812</v>
+        <v>4.589049372648</v>
       </c>
       <c r="S8">
-        <v>0.2185484562824396</v>
+        <v>0.009840107816648366</v>
       </c>
       <c r="T8">
-        <v>0.2650252992706006</v>
+        <v>0.0194987480032161</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>2.4753725</v>
+        <v>0.2830243333333333</v>
       </c>
       <c r="H9">
-        <v>4.950745</v>
+        <v>0.849073</v>
       </c>
       <c r="I9">
-        <v>0.8973953530133233</v>
+        <v>0.0457371718801662</v>
       </c>
       <c r="J9">
-        <v>0.8536035096273711</v>
+        <v>0.06707191790155147</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.492274500000001</v>
+        <v>0.008574</v>
       </c>
       <c r="N9">
-        <v>8.984549000000001</v>
+        <v>0.025722</v>
       </c>
       <c r="O9">
-        <v>0.6072587316327118</v>
+        <v>0.001023900098049123</v>
       </c>
       <c r="P9">
-        <v>0.5161188533463558</v>
+        <v>0.001383544193565374</v>
       </c>
       <c r="Q9">
-        <v>11.12005275975125</v>
+        <v>0.002426650634</v>
       </c>
       <c r="R9">
-        <v>44.480211039005</v>
+        <v>0.021839855706</v>
       </c>
       <c r="S9">
-        <v>0.5449511638439604</v>
+        <v>4.683029477259174E-05</v>
       </c>
       <c r="T9">
-        <v>0.4405608646013037</v>
+        <v>9.279696256398496E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>2.4753725</v>
+        <v>0.2830243333333333</v>
       </c>
       <c r="H10">
-        <v>4.950745</v>
+        <v>0.849073</v>
       </c>
       <c r="I10">
-        <v>0.8973953530133233</v>
+        <v>0.0457371718801662</v>
       </c>
       <c r="J10">
-        <v>0.8536035096273711</v>
+        <v>0.06707191790155147</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7144463333333334</v>
+        <v>5.712803</v>
       </c>
       <c r="N10">
-        <v>2.143339</v>
+        <v>11.425606</v>
       </c>
       <c r="O10">
-        <v>0.09657775236122405</v>
+        <v>0.6822182822294519</v>
       </c>
       <c r="P10">
-        <v>0.1231244514346268</v>
+        <v>0.6145646077002448</v>
       </c>
       <c r="Q10">
-        <v>1.768520806259167</v>
+        <v>1.616862260539667</v>
       </c>
       <c r="R10">
-        <v>10.611124837555</v>
+        <v>9.701173563237999</v>
       </c>
       <c r="S10">
-        <v>0.08666842617343398</v>
+        <v>0.03120273483412018</v>
       </c>
       <c r="T10">
-        <v>0.1050994638655422</v>
+        <v>0.04122002691287</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>2.4753725</v>
+        <v>0.2830243333333333</v>
       </c>
       <c r="H11">
-        <v>4.950745</v>
+        <v>0.849073</v>
       </c>
       <c r="I11">
-        <v>0.8973953530133233</v>
+        <v>0.0457371718801662</v>
       </c>
       <c r="J11">
-        <v>0.8536035096273711</v>
+        <v>0.06707191790155147</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.03348933333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.100468</v>
+      </c>
+      <c r="O11">
+        <v>0.003999268915745247</v>
+      </c>
+      <c r="P11">
+        <v>0.005404008943283026</v>
+      </c>
+      <c r="Q11">
+        <v>0.009478296240444445</v>
+      </c>
+      <c r="R11">
+        <v>0.085304666164</v>
+      </c>
+      <c r="S11">
+        <v>0.0001829152497944463</v>
+      </c>
+      <c r="T11">
+        <v>0.000362457244183129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.4054465</v>
+      </c>
+      <c r="H12">
+        <v>10.810893</v>
+      </c>
+      <c r="I12">
+        <v>0.8735285505234867</v>
+      </c>
+      <c r="J12">
+        <v>0.8539988054483625</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.8174055</v>
+      </c>
+      <c r="N12">
+        <v>1.634811</v>
+      </c>
+      <c r="O12">
+        <v>0.09761389918309914</v>
+      </c>
+      <c r="P12">
+        <v>0.08793380245030721</v>
+      </c>
+      <c r="Q12">
+        <v>4.41844169905575</v>
+      </c>
+      <c r="R12">
+        <v>17.673766796223</v>
+      </c>
+      <c r="S12">
+        <v>0.08526852786435835</v>
+      </c>
+      <c r="T12">
+        <v>0.07509536225109464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.4054465</v>
+      </c>
+      <c r="H13">
+        <v>10.810893</v>
+      </c>
+      <c r="I13">
+        <v>0.8735285505234867</v>
+      </c>
+      <c r="J13">
+        <v>0.8539988054483625</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.801592</v>
+      </c>
+      <c r="N13">
+        <v>5.404776</v>
+      </c>
+      <c r="O13">
+        <v>0.2151446495736546</v>
+      </c>
+      <c r="P13">
+        <v>0.2907140367125996</v>
+      </c>
+      <c r="Q13">
+        <v>9.738409170828001</v>
+      </c>
+      <c r="R13">
+        <v>58.430455024968</v>
+      </c>
+      <c r="S13">
+        <v>0.187934993894958</v>
+      </c>
+      <c r="T13">
+        <v>0.2482694400796314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.4054465</v>
+      </c>
+      <c r="H14">
+        <v>10.810893</v>
+      </c>
+      <c r="I14">
+        <v>0.8735285505234867</v>
+      </c>
+      <c r="J14">
+        <v>0.8539988054483625</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M11">
-        <v>0.09661166666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.289835</v>
-      </c>
-      <c r="O11">
-        <v>0.01305981594867418</v>
-      </c>
-      <c r="P11">
-        <v>0.0166496179006471</v>
-      </c>
-      <c r="Q11">
-        <v>0.2391498628458333</v>
-      </c>
-      <c r="R11">
-        <v>1.434899177075</v>
-      </c>
-      <c r="S11">
-        <v>0.0117198181435495</v>
-      </c>
-      <c r="T11">
-        <v>0.01421217227394707</v>
+      <c r="M14">
+        <v>0.008574</v>
+      </c>
+      <c r="N14">
+        <v>0.025722</v>
+      </c>
+      <c r="O14">
+        <v>0.001023900098049123</v>
+      </c>
+      <c r="P14">
+        <v>0.001383544193565374</v>
+      </c>
+      <c r="Q14">
+        <v>0.046346298291</v>
+      </c>
+      <c r="R14">
+        <v>0.278077789746</v>
+      </c>
+      <c r="S14">
+        <v>0.0008944059685297059</v>
+      </c>
+      <c r="T14">
+        <v>0.001181545088589847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.4054465</v>
+      </c>
+      <c r="H15">
+        <v>10.810893</v>
+      </c>
+      <c r="I15">
+        <v>0.8735285505234867</v>
+      </c>
+      <c r="J15">
+        <v>0.8539988054483625</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.712803</v>
+      </c>
+      <c r="N15">
+        <v>11.425606</v>
+      </c>
+      <c r="O15">
+        <v>0.6822182822294519</v>
+      </c>
+      <c r="P15">
+        <v>0.6145646077002448</v>
+      </c>
+      <c r="Q15">
+        <v>30.8802509815395</v>
+      </c>
+      <c r="R15">
+        <v>123.521003926158</v>
+      </c>
+      <c r="S15">
+        <v>0.595937147216516</v>
+      </c>
+      <c r="T15">
+        <v>0.5248374408468506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.4054465</v>
+      </c>
+      <c r="H16">
+        <v>10.810893</v>
+      </c>
+      <c r="I16">
+        <v>0.8735285505234867</v>
+      </c>
+      <c r="J16">
+        <v>0.8539988054483625</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.03348933333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.100468</v>
+      </c>
+      <c r="O16">
+        <v>0.003999268915745247</v>
+      </c>
+      <c r="P16">
+        <v>0.005404008943283026</v>
+      </c>
+      <c r="Q16">
+        <v>0.181024799654</v>
+      </c>
+      <c r="R16">
+        <v>1.086148797924</v>
+      </c>
+      <c r="S16">
+        <v>0.003493475579124582</v>
+      </c>
+      <c r="T16">
+        <v>0.004615017182195972</v>
       </c>
     </row>
   </sheetData>
